--- a/8/3/Activos de reserva 1982 a 2021 - Trimestral.xlsx
+++ b/8/3/Activos de reserva 1982 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t>Serie</t>
   </si>
@@ -518,6 +518,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -875,7 +878,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J159"/>
+  <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5153,6 +5156,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="160" spans="1:10">
+      <c r="A160" t="s">
+        <v>168</v>
+      </c>
+      <c r="B160">
+        <v>53309</v>
+      </c>
+      <c r="C160">
+        <v>14</v>
+      </c>
+      <c r="D160">
+        <v>3136</v>
+      </c>
+      <c r="E160">
+        <v>677</v>
+      </c>
+      <c r="F160">
+        <v>49482</v>
+      </c>
+      <c r="G160">
+        <v>7125</v>
+      </c>
+      <c r="H160">
+        <v>42358</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
